--- a/biology/Zoologie/Hippodamia_variegata/Hippodamia_variegata.xlsx
+++ b/biology/Zoologie/Hippodamia_variegata/Hippodamia_variegata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Coccinelle des friches (Hippodamia variegata) est une espèce d'insectes coléoptères prédateurs de la famille des Coccinellidae qui est originaire d'Europe, et introduit au Nord-Est de l'Amérique. Commune dans les régions tempérées, cette coccinelle peut atteindre 5 mm de long.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sa livrée varie de l'orange au rouge, aux taches variables. Ses élytres fermés forment un gros cône à base cunéiforme. La base est blanche, le fond varie d'orange pâle à rouge. Chaque élytre présente cinq taches noires, dont une jointe au centre. Son pronotum est blanc et orné d'une large macule à 4 lobes. Le limbe avant est concave, le limbe extérieur assez évasé. Sa tête est noire, son front maculé blanc et les yeux foncés. Ses pattes sont brun noirâtre, aux extrémités brunes.
 On la trouve principalement dans les champs, les prés, les jardins et tout autres espaces verts du printemps à l’automne.  
@@ -545,8 +559,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Anglais
-Amérique : Variegated lady beetle, Variegated ladybird, Spotted amber ladybird
+          <t>Anglais</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Amérique : Variegated lady beetle, Variegated ladybird, Spotted amber ladybird
 Angleterre : Adonis' ladybird
 Australie : White collared ladybird
 Sur les autres projets Wikimedia :
